--- a/Tasks/01_作成ドキュメント（卒研）.xlsx
+++ b/Tasks/01_作成ドキュメント（卒研）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ACSystem\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F52569-C737-46EF-B70F-D97C955515C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62EEA78-BF07-423C-A445-B387DB2BA2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15390" xr2:uid="{CB3579F9-EEB5-4B62-82DD-4C700793FBBF}"/>
   </bookViews>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>＜卒研での成果物＞</t>
     <rPh sb="1" eb="3">
@@ -268,44 +279,6 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>リュウヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システム構成図として作成要</t>
-    <rPh sb="4" eb="7">
-      <t>コウセイズ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面設計図として作成要要→外部設計書で作成する</t>
-    <rPh sb="0" eb="5">
-      <t>ガメンセッケイズ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>ガイブセッケイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1207,12 +1180,12 @@
     <col min="17" max="17" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1233,7 +1206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
         <v>2</v>
@@ -1254,7 +1227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="4"/>
       <c r="D7" s="8" t="s">
         <v>3</v>
@@ -1271,9 +1244,11 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="10"/>
-      <c r="Q7" s="39"/>
-    </row>
-    <row r="8" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q7" s="38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="4"/>
       <c r="D8" s="8" t="s">
         <v>4</v>
@@ -1290,9 +1265,11 @@
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="10"/>
-      <c r="Q8" s="39"/>
-    </row>
-    <row r="9" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q8" s="38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="4"/>
       <c r="D9" s="8" t="s">
         <v>5</v>
@@ -1313,7 +1290,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="4"/>
       <c r="D10" s="8" t="s">
         <v>6</v>
@@ -1333,14 +1310,8 @@
       <c r="Q10" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="R10" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="S10" s="46" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="4"/>
       <c r="D11" s="8" t="s">
         <v>7</v>
@@ -1361,7 +1332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="4"/>
       <c r="D12" s="8" t="s">
         <v>8</v>
@@ -1379,16 +1350,10 @@
       <c r="O12" s="9"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="R12" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="S12" s="46" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="4"/>
       <c r="D13" s="8" t="s">
         <v>9</v>
@@ -1407,7 +1372,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="39"/>
     </row>
-    <row r="14" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="4"/>
       <c r="D14" s="8" t="s">
         <v>10</v>
@@ -1428,7 +1393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="4"/>
       <c r="D15" s="11"/>
       <c r="E15" s="12" t="s">
@@ -1449,7 +1414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="16" t="s">
         <v>12</v>
       </c>
@@ -1467,7 +1432,7 @@
       <c r="O16" s="17"/>
       <c r="P16" s="18"/>
       <c r="Q16" s="41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="3:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1488,7 +1453,7 @@
       <c r="O17" s="21"/>
       <c r="P17" s="22"/>
       <c r="Q17" s="42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="3:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1509,7 +1474,7 @@
       <c r="O18" s="24"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R18" s="45" t="s">
         <v>27</v>
@@ -1536,7 +1501,7 @@
       <c r="O19" s="24"/>
       <c r="P19" s="25"/>
       <c r="Q19" s="38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R19" s="45" t="s">
         <v>27</v>
@@ -1668,7 +1633,7 @@
       <c r="O25" s="34"/>
       <c r="P25" s="35"/>
       <c r="Q25" s="41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="3:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1689,7 +1654,7 @@
       <c r="O26" s="17"/>
       <c r="P26" s="18"/>
       <c r="Q26" s="41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="3:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1701,7 +1666,7 @@
     <row r="29" spans="3:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="3:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="3:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/Tasks/01_作成ドキュメント（卒研）.xlsx
+++ b/Tasks/01_作成ドキュメント（卒研）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ACSystem\Tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ACSYSTEM\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62EEA78-BF07-423C-A445-B387DB2BA2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE2A509-E71F-4DCA-B8CB-F266AA1AD662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15390" xr2:uid="{CB3579F9-EEB5-4B62-82DD-4C700793FBBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB3579F9-EEB5-4B62-82DD-4C700793FBBF}"/>
   </bookViews>
   <sheets>
     <sheet name="卒研での成果物" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>＜卒研での成果物＞</t>
     <rPh sb="1" eb="3">
@@ -260,26 +260,6 @@
   </si>
   <si>
     <t>△</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>→</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義書の推移図を流用する</t>
-    <rPh sb="0" eb="5">
-      <t>ヨウケンテイギショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>スイイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>リュウヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -362,7 +342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -667,19 +647,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -709,7 +676,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -827,16 +794,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1432,7 +1396,7 @@
       <c r="O16" s="17"/>
       <c r="P16" s="18"/>
       <c r="Q16" s="41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="3:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1452,8 +1416,8 @@
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
       <c r="P17" s="22"/>
-      <c r="Q17" s="42" t="s">
-        <v>29</v>
+      <c r="Q17" s="38" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="3:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1474,14 +1438,10 @@
       <c r="O18" s="24"/>
       <c r="P18" s="25"/>
       <c r="Q18" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="R18" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="S18" s="46" t="s">
-        <v>28</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="R18" s="44"/>
+      <c r="S18" s="45"/>
     </row>
     <row r="19" spans="3:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="19"/>
@@ -1501,14 +1461,10 @@
       <c r="O19" s="24"/>
       <c r="P19" s="25"/>
       <c r="Q19" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="R19" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="S19" s="46" t="s">
-        <v>28</v>
-      </c>
+      <c r="R19" s="44"/>
+      <c r="S19" s="45"/>
     </row>
     <row r="20" spans="3:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="19"/>
@@ -1590,7 +1546,7 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="43" t="s">
+      <c r="Q23" s="42" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1611,7 +1567,7 @@
       <c r="N24" s="32"/>
       <c r="O24" s="32"/>
       <c r="P24" s="33"/>
-      <c r="Q24" s="44" t="s">
+      <c r="Q24" s="43" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1633,7 +1589,7 @@
       <c r="O25" s="34"/>
       <c r="P25" s="35"/>
       <c r="Q25" s="41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="3:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1654,7 +1610,7 @@
       <c r="O26" s="17"/>
       <c r="P26" s="18"/>
       <c r="Q26" s="41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="3:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1666,7 +1622,7 @@
     <row r="29" spans="3:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="3:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="3:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/Tasks/01_作成ドキュメント（卒研）.xlsx
+++ b/Tasks/01_作成ドキュメント（卒研）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ACSYSTEM\Tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ACSystem\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE2A509-E71F-4DCA-B8CB-F266AA1AD662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D53986-E186-4F85-A152-569CFE39C1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB3579F9-EEB5-4B62-82DD-4C700793FBBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CB3579F9-EEB5-4B62-82DD-4C700793FBBF}"/>
   </bookViews>
   <sheets>
     <sheet name="卒研での成果物" sheetId="1" r:id="rId1"/>
